--- a/app/static/opinions/150872408.xlsx
+++ b/app/static/opinions/150872408.xlsx
@@ -40,7 +40,7 @@
     <t>thumbs_up</t>
   </si>
   <si>
-    <t>thuhmbs_down</t>
+    <t>thumbs_down</t>
   </si>
   <si>
     <t>content</t>
